--- a/Book_Exercise_Files/Param_toy_model.xlsx
+++ b/Book_Exercise_Files/Param_toy_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/940a138d5667ee1b/Documentos/UVic/Courses/UVIC-2023/Spring-2023/IESVic-Coop/Storage-Master/Model-Data/Cristiano_Toy_Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/940a138d5667ee1b/Documentos/UVic/Courses/UVIC-2023/Spring-2023/IESVic-Coop/The_OSeMOSYS_EBook_by_IESVic/Book_Exercise_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="347" documentId="13_ncr:1_{5C3FF882-E610-4F94-B446-F3C302FE3789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{133832A9-092A-4150-B0A4-E553A795FF1B}"/>
+  <xr:revisionPtr revIDLastSave="500" documentId="13_ncr:1_{5C3FF882-E610-4F94-B446-F3C302FE3789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B522E0F-48EB-4B82-8766-DD72F06D63AC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="862" firstSheet="21" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="862" firstSheet="48" activeTab="52" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Discount_Rate" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="91">
   <si>
     <t>Discount_Rate</t>
   </si>
@@ -337,9 +337,6 @@
     <t>tBASE</t>
   </si>
   <si>
-    <t>storBATT</t>
-  </si>
-  <si>
     <t>pHYDRO</t>
   </si>
   <si>
@@ -359,6 +356,9 @@
   </si>
   <si>
     <t>tEXTRACT2</t>
+  </si>
+  <si>
+    <t>tIND_FURN</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -426,11 +426,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -448,11 +457,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="228">
+  <dxfs count="218">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -465,6 +485,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -755,6 +785,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -765,6 +805,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1075,6 +1125,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1095,6 +1155,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1105,6 +1185,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1155,6 +1245,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1175,6 +1275,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1185,6 +1305,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1234,247 +1364,1147 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1496,126 +2526,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1628,307 +2538,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1985,66 +2595,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2066,66 +2616,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2143,596 +2633,16 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2745,10 +2655,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2804,8 +2710,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B54A560A-239E-4EE3-86B0-2C3E3B7B71F0}" name="Table14" displayName="Table14" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14" xr:uid="{B54A560A-239E-4EE3-86B0-2C3E3B7B71F0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B54A560A-239E-4EE3-86B0-2C3E3B7B71F0}" name="Table14" displayName="Table14" ref="A1:D15" totalsRowShown="0">
+  <autoFilter ref="A1:D15" xr:uid="{B54A560A-239E-4EE3-86B0-2C3E3B7B71F0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{589C438B-5EAB-4A3D-99E1-42148F6556FC}" name="Included"/>
     <tableColumn id="2" xr3:uid="{AF00455B-732C-4B69-B8DF-695A52EE7A68}" name="Region"/>
@@ -2832,12 +2738,12 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{DCA7A2DF-4A4F-4011-941B-0F009D9EE769}" name="Table32" displayName="Table32" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{DCA7A2DF-4A4F-4011-941B-0F009D9EE769}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{DCA7A2DF-4A4F-4011-941B-0F009D9EE769}" name="Table32" displayName="Table32" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15" xr:uid="{DCA7A2DF-4A4F-4011-941B-0F009D9EE769}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{95B5F9E7-C9E5-4CA9-997C-FF05C03FB541}" name="Included"/>
     <tableColumn id="2" xr3:uid="{77869886-1167-41B3-85C4-9F46B902E568}" name="Region"/>
-    <tableColumn id="3" xr3:uid="{389383AD-77CD-487B-980A-CFAC57D18A65}" name="Technology" dataDxfId="165"/>
+    <tableColumn id="3" xr3:uid="{389383AD-77CD-487B-980A-CFAC57D18A65}" name="Technology" dataDxfId="213"/>
     <tableColumn id="4" xr3:uid="{6A302E0A-C24A-4B31-AA8A-55D42D009B42}" name="Year"/>
     <tableColumn id="5" xr3:uid="{7CCD0214-9C71-4EAE-9449-41695AA5AB1C}" name="Availability_Factor"/>
   </tableColumns>
@@ -2846,12 +2752,12 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DFD6F045-9640-4895-B942-97D2591EE6C3}" name="Table16" displayName="Table16" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14" xr:uid="{DFD6F045-9640-4895-B942-97D2591EE6C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DFD6F045-9640-4895-B942-97D2591EE6C3}" name="Table16" displayName="Table16" ref="A1:D15" totalsRowShown="0">
+  <autoFilter ref="A1:D15" xr:uid="{DFD6F045-9640-4895-B942-97D2591EE6C3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{32EFD3CD-288E-4834-9D62-D9177ADF994B}" name="Included"/>
     <tableColumn id="2" xr3:uid="{F09D56AD-E3C2-4309-8401-28C26FE961AC}" name="Region"/>
-    <tableColumn id="3" xr3:uid="{1C2F9AFB-C99E-46FE-BFF8-201C6EC3F2F3}" name="Technology" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{1C2F9AFB-C99E-46FE-BFF8-201C6EC3F2F3}" name="Technology" dataDxfId="212"/>
     <tableColumn id="4" xr3:uid="{96BBBC4F-2EC0-4935-BE8F-37505730FF9B}" name="Operational_Life"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2859,22 +2765,22 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{4419CB75-23AD-4F64-8C12-80FE3561C833}" name="Table17" displayName="Table17" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{4419CB75-23AD-4F64-8C12-80FE3561C833}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{4419CB75-23AD-4F64-8C12-80FE3561C833}" name="Table17" displayName="Table17" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15" xr:uid="{4419CB75-23AD-4F64-8C12-80FE3561C833}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CC82FDEC-573E-4AC2-8B3B-1D7C319A25E6}" name="Included"/>
-    <tableColumn id="2" xr3:uid="{EBC9A796-A814-43B4-A90F-423D81BF721C}" name="Region" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{7C5531ED-647C-4ED0-8DC2-41139DC9C097}" name="Technology" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{AA738736-E7F2-465B-9306-0D08325A7AAF}" name="Year" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{6AE2C28F-EA76-45E1-A0B8-EC21778D5FE1}" name="Residual_Capacity" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{EBC9A796-A814-43B4-A90F-423D81BF721C}" name="Region" dataDxfId="211"/>
+    <tableColumn id="3" xr3:uid="{7C5531ED-647C-4ED0-8DC2-41139DC9C097}" name="Technology" dataDxfId="210"/>
+    <tableColumn id="4" xr3:uid="{AA738736-E7F2-465B-9306-0D08325A7AAF}" name="Year" dataDxfId="209"/>
+    <tableColumn id="5" xr3:uid="{6AE2C28F-EA76-45E1-A0B8-EC21778D5FE1}" name="Residual_Capacity" dataDxfId="208"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{2592AE94-9547-49EB-82E9-916198A5D07A}" name="Table30" displayName="Table30" ref="A1:G11" totalsRowShown="0">
-  <autoFilter ref="A1:G11" xr:uid="{2592AE94-9547-49EB-82E9-916198A5D07A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{2592AE94-9547-49EB-82E9-916198A5D07A}" name="Table30" displayName="Table30" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{2592AE94-9547-49EB-82E9-916198A5D07A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7ECF3BEF-AB30-417F-A03D-7621FDF257C6}" name="Included"/>
     <tableColumn id="2" xr3:uid="{98D21F79-0F4B-40A5-9B0D-64D9B9D0A33E}" name="Region"/>
@@ -2882,15 +2788,15 @@
     <tableColumn id="4" xr3:uid="{5AD2B3E1-5778-4C44-BC04-E9A36DAE1DFD}" name="Fuel"/>
     <tableColumn id="5" xr3:uid="{A5A04B73-C826-4674-B0A3-5613D9AA61F8}" name="Mode_Of_Operation"/>
     <tableColumn id="6" xr3:uid="{B094A224-FE1F-4218-A992-E51235B3174A}" name="Year"/>
-    <tableColumn id="7" xr3:uid="{9BDCD5D5-DD49-4CC1-A55F-0FC4C478F526}" name="Input_Activity_Ratio" dataDxfId="143"/>
+    <tableColumn id="7" xr3:uid="{9BDCD5D5-DD49-4CC1-A55F-0FC4C478F526}" name="Input_Activity_Ratio" dataDxfId="207"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{C6F5A345-749A-4E68-8DAB-3479A21BF376}" name="Table31" displayName="Table31" ref="A1:G10" totalsRowShown="0">
-  <autoFilter ref="A1:G10" xr:uid="{C6F5A345-749A-4E68-8DAB-3479A21BF376}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{C6F5A345-749A-4E68-8DAB-3479A21BF376}" name="Table31" displayName="Table31" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7" xr:uid="{C6F5A345-749A-4E68-8DAB-3479A21BF376}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{74E9267C-9E72-40BF-8D0B-DFA02D94D7F2}" name="Included"/>
     <tableColumn id="2" xr3:uid="{17392F18-6F39-4408-9626-491708C69738}" name="Region"/>
@@ -2917,8 +2823,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{215CD2A9-666B-464B-B01C-1D3430B7AC2F}" name="Table27" displayName="Table27" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{215CD2A9-666B-464B-B01C-1D3430B7AC2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{215CD2A9-666B-464B-B01C-1D3430B7AC2F}" name="Table27" displayName="Table27" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{215CD2A9-666B-464B-B01C-1D3430B7AC2F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{331B01E1-6630-4B5B-9298-84C37DC6F696}" name="Included"/>
     <tableColumn id="2" xr3:uid="{4F9F3ED6-7BF9-4702-93C5-C6F16B70BA0C}" name="Region"/>
@@ -2946,8 +2852,8 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{54051CE1-D69A-415D-8900-2B435566BCAA}" name="Table28" displayName="Table28" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{54051CE1-D69A-415D-8900-2B435566BCAA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{54051CE1-D69A-415D-8900-2B435566BCAA}" name="Table28" displayName="Table28" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15" xr:uid="{54051CE1-D69A-415D-8900-2B435566BCAA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{851A359A-F7EC-4BDB-BBF3-0274BC0E426C}" name="Included"/>
     <tableColumn id="2" xr3:uid="{DD0CEB32-4160-4DFA-BB06-3CB03A5C5549}" name="Region"/>
@@ -2960,8 +2866,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{8C688AA7-2952-42AB-AB6A-23BDD33FB838}" name="Table42" displayName="Table42" ref="A1:F3" totalsRowShown="0">
-  <autoFilter ref="A1:F3" xr:uid="{8C688AA7-2952-42AB-AB6A-23BDD33FB838}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{8C688AA7-2952-42AB-AB6A-23BDD33FB838}" name="Table42" displayName="Table42" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{8C688AA7-2952-42AB-AB6A-23BDD33FB838}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0742A94F-C24B-47D8-81B8-48180FDEDFDE}" name="Included"/>
     <tableColumn id="2" xr3:uid="{A8009F39-1405-4F9D-A253-8AD2FFE47D93}" name="Region"/>
@@ -2975,13 +2881,13 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A054B2C-7F5B-4B5A-937C-4B374090DD17}" name="Table422" displayName="Table422" ref="A1:F3" totalsRowShown="0">
-  <autoFilter ref="A1:F3" xr:uid="{8C688AA7-2952-42AB-AB6A-23BDD33FB838}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A054B2C-7F5B-4B5A-937C-4B374090DD17}" name="Table422" displayName="Table422" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{8C688AA7-2952-42AB-AB6A-23BDD33FB838}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4B43F95D-90CA-44BD-B319-705B23D6984D}" name="Included"/>
     <tableColumn id="2" xr3:uid="{EE6AC6D7-7466-4E89-B445-EED4EF4DB004}" name="Region"/>
     <tableColumn id="3" xr3:uid="{C6FD851A-6249-453B-B7CD-6974B123A361}" name="Technology"/>
-    <tableColumn id="4" xr3:uid="{E2C6F756-9900-40E4-92EE-E38D9FB5C3F7}" name="Storage" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{E2C6F756-9900-40E4-92EE-E38D9FB5C3F7}" name="Storage" dataDxfId="206"/>
     <tableColumn id="5" xr3:uid="{E2B8B2D2-5F52-44EE-ACEC-B7A33F420DD5}" name="Mode_Of_Operation"/>
     <tableColumn id="6" xr3:uid="{BB018C88-B654-4915-A544-A453ACCF07E6}" name="Technology_From_Storage"/>
   </tableColumns>
@@ -2990,8 +2896,8 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{60C6A245-76ED-4521-8D93-F84C862D686F}" name="Table4356" displayName="Table4356" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{FE67C7D7-1A4F-4044-8885-5F58BA41AE17}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{60C6A245-76ED-4521-8D93-F84C862D686F}" name="Table4356" displayName="Table4356" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{FE67C7D7-1A4F-4044-8885-5F58BA41AE17}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{03CE5E0E-04E5-4DFC-8C7B-98D1AE782CE5}" name="Included"/>
     <tableColumn id="2" xr3:uid="{C6333623-7AAF-4FF9-971E-94BD3E898523}" name="Region"/>
@@ -3003,8 +2909,8 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{48A05142-7625-4277-888B-1BCC1135D972}" name="Table435616" displayName="Table435616" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{FE67C7D7-1A4F-4044-8885-5F58BA41AE17}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{48A05142-7625-4277-888B-1BCC1135D972}" name="Table435616" displayName="Table435616" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{FE67C7D7-1A4F-4044-8885-5F58BA41AE17}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FA2F02B9-CE97-422B-96F5-B1F66783EBEE}" name="Included"/>
     <tableColumn id="2" xr3:uid="{529F0E2B-D47D-4401-BDEB-CF9DE13C31C9}" name="Region"/>
@@ -3016,8 +2922,8 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{FE67C7D7-1A4F-4044-8885-5F58BA41AE17}" name="Table43" displayName="Table43" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{FE67C7D7-1A4F-4044-8885-5F58BA41AE17}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{FE67C7D7-1A4F-4044-8885-5F58BA41AE17}" name="Table43" displayName="Table43" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{FE67C7D7-1A4F-4044-8885-5F58BA41AE17}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EC43C0A8-415F-448E-B100-5CDDB32E3D4B}" name="Included"/>
     <tableColumn id="2" xr3:uid="{FC67635B-D2B7-4B05-ABC5-A9DA2FF6594B}" name="Region"/>
@@ -3029,8 +2935,8 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{1D6EFA17-8927-452C-B778-9553EB362867}" name="Table44" displayName="Table44" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{1D6EFA17-8927-452C-B778-9553EB362867}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{1D6EFA17-8927-452C-B778-9553EB362867}" name="Table44" displayName="Table44" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{1D6EFA17-8927-452C-B778-9553EB362867}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{56ABC732-6D11-4AC8-88B9-8A6AC68AD9F1}" name="Included"/>
     <tableColumn id="2" xr3:uid="{18FC4B49-E6E8-4836-AADE-6DE2004D984F}" name="Region"/>
@@ -3042,8 +2948,8 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{9AA36C7D-FCD3-4702-9906-64F2C633BE86}" name="Table45" displayName="Table45" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3" xr:uid="{9AA36C7D-FCD3-4702-9906-64F2C633BE86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{9AA36C7D-FCD3-4702-9906-64F2C633BE86}" name="Table45" displayName="Table45" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{9AA36C7D-FCD3-4702-9906-64F2C633BE86}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8547C285-EAE2-4CFF-9827-CB2439A6AADC}" name="Included"/>
     <tableColumn id="2" xr3:uid="{A03A0897-E4C3-4523-96D7-57924186B1F8}" name="Region"/>
@@ -3063,7 +2969,7 @@
     <tableColumn id="2" xr3:uid="{DC4F785E-F392-4AE0-B61C-9744E419E43F}" name="Region"/>
     <tableColumn id="3" xr3:uid="{B7E6DC3F-4224-48A8-8CAF-2657FB9453A5}" name="Region2"/>
     <tableColumn id="4" xr3:uid="{E779C436-05FA-4A3E-81B7-9C191DA1474C}" name="Fuel"/>
-    <tableColumn id="5" xr3:uid="{E59AD4DA-6F03-4982-8DCA-E7D9B8878E11}" name="Year" dataDxfId="219"/>
+    <tableColumn id="5" xr3:uid="{E59AD4DA-6F03-4982-8DCA-E7D9B8878E11}" name="Year" dataDxfId="217"/>
     <tableColumn id="6" xr3:uid="{93BA3E35-76C1-4ECB-B00B-E68EAF6CC2B9}" name="Trade_Route"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3071,21 +2977,21 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{4BBBA37A-C194-442A-9A5F-549E6822C73C}" name="Table46" displayName="Table46" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{4BBBA37A-C194-442A-9A5F-549E6822C73C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{4BBBA37A-C194-442A-9A5F-549E6822C73C}" name="Table46" displayName="Table46" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{4BBBA37A-C194-442A-9A5F-549E6822C73C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{38537BB7-B705-4B71-AB01-79BCF114FE40}" name="Included"/>
     <tableColumn id="2" xr3:uid="{14C04A03-2809-4097-87A6-286147676E1A}" name="Region"/>
     <tableColumn id="3" xr3:uid="{43A6C8BE-4FB2-4C02-9B80-E70A6D64D1BB}" name="Storage"/>
-    <tableColumn id="4" xr3:uid="{1E10DB24-CA96-42C7-960D-2D208D5D3234}" name="OperationalLife_Storage" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{1E10DB24-CA96-42C7-960D-2D208D5D3234}" name="OperationalLife_Storage" dataDxfId="205"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{89F9D33D-A496-4EBE-8AFC-BAA84A430F7F}" name="Table47" displayName="Table47" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3" xr:uid="{89F9D33D-A496-4EBE-8AFC-BAA84A430F7F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{89F9D33D-A496-4EBE-8AFC-BAA84A430F7F}" name="Table47" displayName="Table47" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{89F9D33D-A496-4EBE-8AFC-BAA84A430F7F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E87F030D-C3E9-4215-BD70-B263A3694B04}" name="Included"/>
     <tableColumn id="2" xr3:uid="{159600EE-F385-455D-8D6A-1389934B291B}" name="Region"/>
@@ -3098,8 +3004,8 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{E9D78C0E-BFFB-4BA4-B29B-A5911A4D4776}" name="Table48" displayName="Table48" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3" xr:uid="{E9D78C0E-BFFB-4BA4-B29B-A5911A4D4776}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{E9D78C0E-BFFB-4BA4-B29B-A5911A4D4776}" name="Table48" displayName="Table48" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{E9D78C0E-BFFB-4BA4-B29B-A5911A4D4776}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C76CC080-CE27-4929-922C-1DB91C51AD04}" name="Included"/>
     <tableColumn id="2" xr3:uid="{2501684C-40D9-4223-AE75-394C7A1DA38E}" name="Region"/>
@@ -3112,8 +3018,8 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{7D59B899-0230-4B4E-99CB-79409E4D85CB}" name="Table18" displayName="Table18" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{7D59B899-0230-4B4E-99CB-79409E4D85CB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{7D59B899-0230-4B4E-99CB-79409E4D85CB}" name="Table18" displayName="Table18" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15" xr:uid="{7D59B899-0230-4B4E-99CB-79409E4D85CB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{93A99CE9-0A62-4B4E-B51F-2A621B7790AA}" name="Included"/>
     <tableColumn id="2" xr3:uid="{E13886ED-8436-4E8E-AE47-F262DCB7834C}" name="Region"/>
@@ -3126,8 +3032,8 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B9C3B5F0-6B80-4C7F-8C5A-67679655D401}" name="Table19" displayName="Table19" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{B9C3B5F0-6B80-4C7F-8C5A-67679655D401}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B9C3B5F0-6B80-4C7F-8C5A-67679655D401}" name="Table19" displayName="Table19" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{B9C3B5F0-6B80-4C7F-8C5A-67679655D401}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDC0D54C-AFF0-43CD-884E-586BCAFF82ED}" name="Included"/>
     <tableColumn id="2" xr3:uid="{0528F2A4-ED18-4DB6-8142-CF2BF83D487C}" name="Region"/>
@@ -3140,22 +3046,22 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{64B880AF-97FF-45FE-8CA7-069185784530}" name="Table20" displayName="Table20" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{64B880AF-97FF-45FE-8CA7-069185784530}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{64B880AF-97FF-45FE-8CA7-069185784530}" name="Table20" displayName="Table20" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{64B880AF-97FF-45FE-8CA7-069185784530}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{ECA8EBDC-0F22-4744-AC54-0E8AD7BD5B70}" name="Included"/>
     <tableColumn id="2" xr3:uid="{0BD4ED1D-6E3C-4798-873E-1C2FAA06CDAD}" name="Region"/>
     <tableColumn id="3" xr3:uid="{C07BE245-97B8-454E-876C-5692A8BF2644}" name="Technology"/>
     <tableColumn id="4" xr3:uid="{797AF354-6912-4A12-B3B3-E57FB9614E21}" name="Year"/>
-    <tableColumn id="5" xr3:uid="{A80D702A-FE05-4DE5-84ED-777C0888347C}" name="Total_Annual_Min_Capacity" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{A80D702A-FE05-4DE5-84ED-777C0888347C}" name="Total_Annual_Min_Capacity" dataDxfId="204"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{1B1AB050-F86F-460E-8DA3-9C5EB22AFC27}" name="Table21" displayName="Table21" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{1B1AB050-F86F-460E-8DA3-9C5EB22AFC27}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{1B1AB050-F86F-460E-8DA3-9C5EB22AFC27}" name="Table21" displayName="Table21" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{1B1AB050-F86F-460E-8DA3-9C5EB22AFC27}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5ED1D559-C4E8-4B29-8A6F-514CD3F875AD}" name="Included"/>
     <tableColumn id="2" xr3:uid="{7A431580-A5F4-4A42-B3FB-8B71E4539409}" name="Region"/>
@@ -3168,8 +3074,8 @@
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{BED541DA-7739-4D09-92C4-AB5894B5558B}" name="Table22" displayName="Table22" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{BED541DA-7739-4D09-92C4-AB5894B5558B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{BED541DA-7739-4D09-92C4-AB5894B5558B}" name="Table22" displayName="Table22" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{BED541DA-7739-4D09-92C4-AB5894B5558B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4079D5C6-7D49-48D3-8B24-B6D0CB4A71B0}" name="Included"/>
     <tableColumn id="2" xr3:uid="{784E7E24-F579-4E9D-95CC-58411F3E5045}" name="Region"/>
@@ -3182,8 +3088,8 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{A553706D-41DB-4CB5-B335-E0F8724D162C}" name="Table23" displayName="Table23" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{A553706D-41DB-4CB5-B335-E0F8724D162C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{A553706D-41DB-4CB5-B335-E0F8724D162C}" name="Table23" displayName="Table23" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{A553706D-41DB-4CB5-B335-E0F8724D162C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B22BFC20-FBB0-49AD-A254-77EE661DA522}" name="Included"/>
     <tableColumn id="2" xr3:uid="{43A216C6-95DD-48F7-87E8-B4AA0674D6E1}" name="Region"/>
@@ -3196,8 +3102,8 @@
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{76B64AEF-6F81-4626-A92D-6177B9E9C8FD}" name="Table24" displayName="Table24" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{76B64AEF-6F81-4626-A92D-6177B9E9C8FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{76B64AEF-6F81-4626-A92D-6177B9E9C8FD}" name="Table24" displayName="Table24" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{76B64AEF-6F81-4626-A92D-6177B9E9C8FD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{84FC93C2-B8A3-4096-B4AD-6DC915FFB439}" name="Included"/>
     <tableColumn id="2" xr3:uid="{E3BAD203-CD87-44A3-8A0C-B74DC012CC98}" name="Region"/>
@@ -3224,8 +3130,8 @@
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{544FC15D-37F9-4EAD-8025-20B66FC312C7}" name="Table25" displayName="Table25" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14" xr:uid="{544FC15D-37F9-4EAD-8025-20B66FC312C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{544FC15D-37F9-4EAD-8025-20B66FC312C7}" name="Table25" displayName="Table25" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8" xr:uid="{544FC15D-37F9-4EAD-8025-20B66FC312C7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B3E3AC28-1C67-4E7A-9206-54924ADCC9E8}" name="Included"/>
     <tableColumn id="2" xr3:uid="{D929D37F-3EA8-4979-A435-87D5CC9D945F}" name="Region"/>
@@ -3237,8 +3143,8 @@
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{F76FE8E9-7C68-4E68-9C9C-6FA138CDB735}" name="Table26" displayName="Table26" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14" xr:uid="{F76FE8E9-7C68-4E68-9C9C-6FA138CDB735}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{F76FE8E9-7C68-4E68-9C9C-6FA138CDB735}" name="Table26" displayName="Table26" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8" xr:uid="{F76FE8E9-7C68-4E68-9C9C-6FA138CDB735}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7008EC37-CE25-4DFD-ACFD-5F89E936DA32}" name="Included"/>
     <tableColumn id="2" xr3:uid="{F95F17D1-C7E1-4048-A284-C65D74B06684}" name="Region"/>
@@ -3250,8 +3156,8 @@
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{E2C4858C-BE1B-45C5-823C-C9941873E6E5}" name="Table34" displayName="Table34" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{E2C4858C-BE1B-45C5-823C-C9941873E6E5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{E2C4858C-BE1B-45C5-823C-C9941873E6E5}" name="Table34" displayName="Table34" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{E2C4858C-BE1B-45C5-823C-C9941873E6E5}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{ECD6C4FF-A3BD-4901-979D-E567118CBC3E}" name="Included"/>
     <tableColumn id="2" xr3:uid="{AF6D7BF1-38FA-4590-B2E9-F35EAB163C1D}" name="Region"/>
@@ -3438,7 +3344,7 @@
     <tableColumn id="1" xr3:uid="{16548578-854D-41ED-8CA9-3B25FE777379}" name="Included"/>
     <tableColumn id="2" xr3:uid="{5E26AEC0-B2BC-4AFD-9412-2C1E65038084}" name="Timeslice"/>
     <tableColumn id="3" xr3:uid="{43F4462C-EBC6-47DF-A9A9-FAA0DA369E00}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{EBF068A2-0D36-42BA-B007-2DC59FF176CC}" name="Year_Split" dataDxfId="208"/>
+    <tableColumn id="4" xr3:uid="{EBF068A2-0D36-42BA-B007-2DC59FF176CC}" name="Year_Split" dataDxfId="216"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3451,7 +3357,7 @@
     <tableColumn id="1" xr3:uid="{E1605273-EDF5-41BD-A9F4-99DC34D1FCE9}" name="Included"/>
     <tableColumn id="2" xr3:uid="{09D09406-91B6-4573-99EB-DFDB76538463}" name="Daily_Timebracket"/>
     <tableColumn id="3" xr3:uid="{1F7DBB82-0E55-4438-B310-AC1B0F2D72C0}" name="Year"/>
-    <tableColumn id="4" xr3:uid="{B83E60D0-072D-4FE6-8A8E-AA1E684516C0}" name="Day_Split" dataDxfId="205"/>
+    <tableColumn id="4" xr3:uid="{B83E60D0-072D-4FE6-8A8E-AA1E684516C0}" name="Day_Split" dataDxfId="215"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3474,7 +3380,7 @@
     <tableColumn id="5" xr3:uid="{8FB69155-5BC0-4958-B491-500309854A8A}" name="Year">
       <calculatedColumnFormula>E1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9B06F16F-E710-44BF-A631-4258D38CA2E2}" name="Specified_Demand_Profile" dataDxfId="194"/>
+    <tableColumn id="6" xr3:uid="{9B06F16F-E710-44BF-A631-4258D38CA2E2}" name="Specified_Demand_Profile" dataDxfId="214"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3793,10 +3699,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 C1:C2">
-    <cfRule type="cellIs" dxfId="227" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4512,10 +4418,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="191" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5230,10 +5136,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="189" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6096,10 +6002,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="187" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6112,10 +6018,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D013EB77-4DDE-409F-B63D-BD9F883B985F}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6159,29 +6065,29 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6192,18 +6098,18 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6214,7 +6120,7 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6225,7 +6131,7 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6236,7 +6142,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6247,18 +6153,18 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6269,43 +6175,46 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 D2:XFD14 B2:B14">
-    <cfRule type="cellIs" dxfId="185" priority="9" operator="equal">
+  <conditionalFormatting sqref="A2:A15 C2:C15">
+    <cfRule type="cellIs" dxfId="171" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="10" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 D2:XFD2 D3:D15 E3:XFD1048576 A16:D1048576 B2:B15">
+    <cfRule type="cellIs" dxfId="169" priority="11" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="12" operator="equal">
       <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="183" priority="5" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="6" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="181" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="2" operator="equal">
-      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6319,7 +6228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082E4390-637D-4AA9-89D0-54965E21662D}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
@@ -7320,7 +7229,7 @@
         <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -7340,7 +7249,7 @@
         <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -7360,7 +7269,7 @@
         <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -7380,7 +7289,7 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -7400,7 +7309,7 @@
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -7420,7 +7329,7 @@
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55">
         <v>6</v>
@@ -7440,7 +7349,7 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D56">
         <v>7</v>
@@ -7460,7 +7369,7 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57">
         <v>8</v>
@@ -7480,7 +7389,7 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D58">
         <v>9</v>
@@ -7500,7 +7409,7 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59">
         <v>10</v>
@@ -7520,7 +7429,7 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60">
         <v>11</v>
@@ -7540,7 +7449,7 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D61">
         <v>12</v>
@@ -7560,7 +7469,7 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62">
         <v>13</v>
@@ -7580,7 +7489,7 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D63">
         <v>14</v>
@@ -7600,7 +7509,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64">
         <v>15</v>
@@ -7620,7 +7529,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D65">
         <v>16</v>
@@ -7640,7 +7549,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66">
         <v>17</v>
@@ -7660,7 +7569,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67">
         <v>18</v>
@@ -7680,7 +7589,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68">
         <v>19</v>
@@ -7700,7 +7609,7 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69">
         <v>20</v>
@@ -7720,7 +7629,7 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70">
         <v>21</v>
@@ -7740,7 +7649,7 @@
         <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71">
         <v>22</v>
@@ -7760,7 +7669,7 @@
         <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D72">
         <v>23</v>
@@ -7780,7 +7689,7 @@
         <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73">
         <v>24</v>
@@ -7800,7 +7709,7 @@
         <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D74">
         <v>25</v>
@@ -7820,7 +7729,7 @@
         <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75">
         <v>26</v>
@@ -7840,7 +7749,7 @@
         <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D76">
         <v>27</v>
@@ -7860,7 +7769,7 @@
         <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77">
         <v>28</v>
@@ -7880,7 +7789,7 @@
         <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78">
         <v>29</v>
@@ -7900,7 +7809,7 @@
         <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D79">
         <v>30</v>
@@ -7920,7 +7829,7 @@
         <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D80">
         <v>31</v>
@@ -7940,7 +7849,7 @@
         <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D81">
         <v>32</v>
@@ -7960,7 +7869,7 @@
         <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D82">
         <v>33</v>
@@ -7980,7 +7889,7 @@
         <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D83">
         <v>34</v>
@@ -8000,7 +7909,7 @@
         <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84">
         <v>35</v>
@@ -8020,7 +7929,7 @@
         <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85">
         <v>36</v>
@@ -8040,7 +7949,7 @@
         <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86">
         <v>37</v>
@@ -8060,7 +7969,7 @@
         <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D87">
         <v>38</v>
@@ -8080,7 +7989,7 @@
         <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D88">
         <v>39</v>
@@ -8100,7 +8009,7 @@
         <v>66</v>
       </c>
       <c r="C89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D89">
         <v>40</v>
@@ -8120,7 +8029,7 @@
         <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D90">
         <v>41</v>
@@ -8140,7 +8049,7 @@
         <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D91">
         <v>42</v>
@@ -8160,7 +8069,7 @@
         <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D92">
         <v>43</v>
@@ -8180,7 +8089,7 @@
         <v>66</v>
       </c>
       <c r="C93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D93">
         <v>44</v>
@@ -8200,7 +8109,7 @@
         <v>66</v>
       </c>
       <c r="C94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D94">
         <v>45</v>
@@ -8220,7 +8129,7 @@
         <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D95">
         <v>46</v>
@@ -8240,7 +8149,7 @@
         <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D96">
         <v>47</v>
@@ -8260,7 +8169,7 @@
         <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D97">
         <v>48</v>
@@ -8273,35 +8182,27 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A98:F1048576 I3:XFD13 I38:XFD40 A1:F1 G1:XFD2 G3:G13 G14:XFD37 F6:F49 G41:XFD1048576 G38:G40 F54:F73 F78:F97">
-    <cfRule type="cellIs" dxfId="179" priority="7" operator="equal">
+  <conditionalFormatting sqref="A2:A97">
+    <cfRule type="cellIs" dxfId="167" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A97">
-    <cfRule type="cellIs" dxfId="177" priority="5" operator="equal">
+  <conditionalFormatting sqref="A1:F1 G1:XFD2 G3:G13 I3:XFD13 G14:XFD37 G38:G40 I38:XFD40 G41:XFD1048576 F78:F97 A98:F1048576">
+    <cfRule type="cellIs" dxfId="165" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="8" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
-    <cfRule type="cellIs" dxfId="175" priority="3" operator="equal">
+  <conditionalFormatting sqref="F2:F73">
+    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="4" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:F53">
-    <cfRule type="cellIs" dxfId="173" priority="1" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8314,10 +8215,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AE9B76-9625-47F2-80D8-B3C0317D6196}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8367,7 +8268,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2030</v>
@@ -8375,13 +8276,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -8389,13 +8290,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>2030</v>
@@ -8409,7 +8310,7 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>2030</v>
@@ -8417,13 +8318,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>2030</v>
@@ -8437,7 +8338,7 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>2030</v>
@@ -8451,7 +8352,7 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>2030</v>
@@ -8465,7 +8366,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>2030</v>
@@ -8479,7 +8380,7 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>2030</v>
@@ -8487,13 +8388,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>2030</v>
@@ -8507,7 +8408,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13">
         <v>2030</v>
@@ -8515,40 +8416,54 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>2030</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>2030</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 I2:XFD11 F12:XFD1048576 F10:G11 A15:E1048576 D2:G9 B2:B14 D10:E14">
-    <cfRule type="cellIs" dxfId="171" priority="17" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C15 A2:A15">
+    <cfRule type="cellIs" dxfId="161" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="18" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 I2:XFD11 F12:XFD1048576 A16:E1048576 D2:G2 F3:G11 B2:B15 D3:E15">
+    <cfRule type="cellIs" dxfId="159" priority="19" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="20" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="169" priority="5" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="157" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="6" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8561,10 +8476,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC5528A-9ABE-40C1-BEBB-33B5D26F1068}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8611,7 +8526,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -8619,13 +8534,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -8633,13 +8548,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -8653,7 +8568,7 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -8661,13 +8576,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -8681,7 +8596,7 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -8695,7 +8610,7 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -8709,7 +8624,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -8723,7 +8638,7 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -8731,13 +8646,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -8751,7 +8666,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -8759,40 +8674,54 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 B2:B14 D2:XFD14">
-    <cfRule type="cellIs" dxfId="164" priority="13" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C15 A2:A15">
+    <cfRule type="cellIs" dxfId="155" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="14" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 D2:XFD2 E3:XFD1048576 A16:D1048576 B2:B15 D3:D15">
+    <cfRule type="cellIs" dxfId="153" priority="15" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="16" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="162" priority="5" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="151" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="6" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="160" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8805,10 +8734,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457B0892-A2EE-4A43-94AC-FB7829E818D3}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8859,7 +8788,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1">
         <v>2030</v>
@@ -8868,13 +8797,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1">
         <v>2030</v>
@@ -8883,13 +8812,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1">
         <v>2030</v>
@@ -8904,7 +8833,7 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1">
         <v>2030</v>
@@ -8913,13 +8842,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1">
         <v>2030</v>
@@ -8934,7 +8863,7 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1">
         <v>2030</v>
@@ -8949,7 +8878,7 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1">
         <v>2030</v>
@@ -8964,7 +8893,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1">
         <v>2030</v>
@@ -8979,7 +8908,7 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1">
         <v>2030</v>
@@ -8988,13 +8917,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1">
         <v>2030</v>
@@ -9009,7 +8938,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1">
         <v>2030</v>
@@ -9018,41 +8947,56 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1">
         <v>2030</v>
       </c>
       <c r="E14" s="1"/>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2030</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 B2:B14 D2:XFD14">
-    <cfRule type="cellIs" dxfId="157" priority="19" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C15 A2:A15">
+    <cfRule type="cellIs" dxfId="149" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="20" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 D2:XFD2 F3:XFD1048576 A16:E1048576 D3:E15 B2:B15">
+    <cfRule type="cellIs" dxfId="147" priority="21" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="22" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="155" priority="5" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="145" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="6" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="153" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9066,10 +9010,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2556073E-D593-4A64-B041-C2748D8A29DE}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9136,10 +9080,10 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -9153,7 +9097,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -9165,7 +9109,7 @@
         <v>68</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>2030</v>
@@ -9176,7 +9120,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -9184,6 +9128,9 @@
       <c r="C5" t="s">
         <v>87</v>
       </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -9195,172 +9142,48 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2030</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2030</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2030</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2030</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2030</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2030</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="4"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A17:G1048576 D2:XFD2 H3:XFD1048576 D3:G16 B2:B11">
-    <cfRule type="cellIs" dxfId="147" priority="7" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C5 A2:A5">
+    <cfRule type="cellIs" dxfId="143" priority="5" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="8" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 D2:XFD2 H3:XFD1048576 A11:G1048576 B2:B5 D3:G10">
+    <cfRule type="cellIs" dxfId="141" priority="9" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="10" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11 A2:A11">
-    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="139" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9373,10 +9196,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC743490-09F3-4104-AFCD-D923797FA70C}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9442,10 +9265,10 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -9465,10 +9288,10 @@
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -9488,7 +9311,7 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
@@ -9505,7 +9328,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -9517,7 +9340,7 @@
         <v>68</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2030</v>
@@ -9528,7 +9351,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -9549,89 +9372,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2030</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2030</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2030</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 D2:XFD3 H4:XFD1048576 D11:G11 A10:D10 D6:D9 E6:G10 A13:G1048576 D4:G5 A2:B10">
-    <cfRule type="cellIs" dxfId="142" priority="11" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A10:G1048576 D2:XFD2 H3:XFD1048576 A2:B7 D3:G8">
+    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C10">
-    <cfRule type="cellIs" dxfId="140" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C7">
+    <cfRule type="cellIs" dxfId="135" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="4" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="133" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9679,10 +9441,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2 C1:XFD2 A3:XFD1048576">
-    <cfRule type="cellIs" dxfId="225" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9695,10 +9457,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8149F8CC-1ECF-4B61-BE68-A121444862E2}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9751,24 +9513,24 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2030</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -9813,163 +9575,61 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>2030</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>2030</v>
       </c>
       <c r="E8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9">
-        <v>2030</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10">
-        <v>2030</v>
-      </c>
-      <c r="E10">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>2030</v>
-      </c>
-      <c r="E11">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12">
-        <v>2030</v>
-      </c>
-      <c r="E12">
         <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13">
-        <v>2030</v>
-      </c>
-      <c r="E13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>2030</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 B2:B14 D2:XFD14">
-    <cfRule type="cellIs" dxfId="138" priority="7" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C8 A2:A8">
+    <cfRule type="cellIs" dxfId="131" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="8" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 D2:XFD2 F3:XFD1048576 A9:E1048576 B2:B8 D3:E8">
+    <cfRule type="cellIs" dxfId="129" priority="9" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="10" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="136" priority="3" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="127" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="4" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="134" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9985,7 +9645,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10046,7 +9706,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -10055,18 +9715,18 @@
         <v>2030</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -10126,116 +9786,116 @@
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>2030</v>
       </c>
       <c r="F7">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2030</v>
-      </c>
-      <c r="F8">
-        <v>0.125</v>
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2030</v>
+      </c>
+      <c r="F8" s="11">
+        <v>99999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>2030</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>99999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>2030</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>99999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>2030</v>
       </c>
       <c r="F11">
-        <v>4.4999999999999998E-2</v>
+        <v>99999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>2030</v>
       </c>
       <c r="F12">
-        <v>2.5000000000000001E-2</v>
+        <v>99999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10246,16 +9906,16 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>2030</v>
       </c>
       <c r="F13">
-        <v>0.01</v>
+        <v>99999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10266,52 +9926,69 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>2030</v>
       </c>
       <c r="F14">
-        <v>0.01</v>
+        <v>99999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>2030</v>
       </c>
       <c r="F15">
-        <v>4.4999999999999998E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A16:F1048576 D7:F15 G7:XFD1048576 B2:B15 D2:XFD6">
-    <cfRule type="cellIs" dxfId="132" priority="11" operator="equal">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C2 C4:C9 C11:C15 A2:A15">
+    <cfRule type="cellIs" dxfId="125" priority="7" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="8" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="12" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 D2:XFD2 G3:XFD1048576 B2:B7 D3:F7 A16:F1048576 B9:B14 A15:C15 D9:F15 A8:F8">
+    <cfRule type="cellIs" dxfId="123" priority="15" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="16" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C15 A2:A15">
-    <cfRule type="cellIs" dxfId="130" priority="3" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="119" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10324,10 +10001,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7727D06-0F44-49D9-BC44-70D079E0074E}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10380,24 +10057,24 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2030</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -10408,13 +10085,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>2030</v>
@@ -10431,30 +10108,30 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>2030</v>
       </c>
       <c r="E6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>2030</v>
       </c>
       <c r="E7">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10465,13 +10142,13 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>2030</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10482,13 +10159,13 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>2030</v>
       </c>
       <c r="E9">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10499,13 +10176,13 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>2030</v>
       </c>
       <c r="E10">
-        <v>1.8</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10516,30 +10193,30 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>2030</v>
       </c>
       <c r="E11">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>2030</v>
       </c>
       <c r="E12">
-        <v>0.01</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10550,7 +10227,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13">
         <v>2030</v>
@@ -10561,51 +10238,60 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>2030</v>
       </c>
       <c r="E14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>2030</v>
+      </c>
+      <c r="E15">
         <v>1.2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 F2:XFD11 A15:XFD1048576 B12:B14 D12:XFD14">
-    <cfRule type="cellIs" dxfId="128" priority="11" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C15 A2:A15">
+    <cfRule type="cellIs" dxfId="117" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="12" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 F2:XFD1048576 A16:E1048576 B2:B15 D2:E15">
+    <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B14 D2:E14">
-    <cfRule type="cellIs" dxfId="126" priority="7" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="8" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="113" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="124" priority="3" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="4" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="122" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10618,10 +10304,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1A14D-23C5-41A8-A2B6-B180E248F7E1}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10662,7 +10348,7 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
@@ -10674,32 +10360,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="120" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10712,10 +10378,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BA23E9-10E7-45AE-A279-7E73AF5E0199}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10756,7 +10422,7 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
@@ -10768,32 +10434,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="G3:XFD1048576 D4:E1048576 A4:B1048576 A1:XFD2 A3:F3">
-    <cfRule type="cellIs" dxfId="118" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD2 G3:XFD1048576 A3:B1048576 D3:E1048576">
+    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10807,10 +10453,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93E678C-B6E0-47CB-A0DC-69F567AE60A7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10849,26 +10495,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3">
-        <v>1500</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10881,10 +10513,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A0B9C7-FB98-4D7F-9612-1C783FDF17C4}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10923,26 +10555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3">
-        <v>1500</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="113" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10955,10 +10573,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA398CB7-5945-4D5C-8C10-36FC381F9810}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10994,23 +10612,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11023,10 +10630,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35EA880-4B65-4267-B6E4-9F3CA50189B7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11062,23 +10669,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11091,10 +10687,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C51420A-CCDB-4973-8F2A-01979D50DA56}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11139,26 +10735,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3">
-        <v>2030</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11174,7 +10756,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11208,7 +10790,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -11228,7 +10810,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -11248,7 +10830,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -11277,7 +10859,7 @@
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>2030</v>
@@ -11297,7 +10879,7 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="6">
         <v>2030</v>
@@ -11311,19 +10893,19 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1 A7:XFD1048576 E2:XFD6 A2:C6">
-    <cfRule type="cellIs" dxfId="223" priority="3" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 E2:XFD6 A7:XFD1048576 A2:C6">
+    <cfRule type="cellIs" dxfId="199" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D6">
-    <cfRule type="cellIs" dxfId="221" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11336,10 +10918,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC75DAFE-57EA-467F-9C97-939ED0DB53D2}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11378,26 +10960,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="10">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11410,10 +10978,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7BE76A-C611-4AE1-8DBB-F07139D053F0}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11458,29 +11026,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3">
-        <v>2030</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11493,10 +11044,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E073A493-6B9F-4C27-820A-76FC33B6FE5D}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11537,26 +11088,12 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3">
-        <v>2030</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11569,10 +11106,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C887D8CE-91ED-48B0-9D21-217EA198723B}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11622,7 +11159,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2030</v>
@@ -11630,13 +11167,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -11644,13 +11181,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>2030</v>
@@ -11664,7 +11201,7 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>2030</v>
@@ -11672,13 +11209,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>2030</v>
@@ -11692,7 +11229,7 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>2030</v>
@@ -11706,7 +11243,7 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>2030</v>
@@ -11720,7 +11257,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>2030</v>
@@ -11734,7 +11271,7 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>2030</v>
@@ -11742,13 +11279,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>2030</v>
@@ -11762,7 +11299,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13">
         <v>2030</v>
@@ -11770,40 +11307,54 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>2030</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>2030</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 B2:B14 D2:XFD14">
-    <cfRule type="cellIs" dxfId="98" priority="7" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C15 A2:A15">
+    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="8" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 D2:XFD2 F3:XFD1048576 A16:E1048576 B2:B15 D3:E15">
+    <cfRule type="cellIs" dxfId="89" priority="9" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="10" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11816,10 +11367,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A245C4DD-CDD8-415E-B12D-33DCC9C11634}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11869,7 +11420,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2030</v>
@@ -11877,13 +11428,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -11922,13 +11473,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>2030</v>
@@ -11936,13 +11487,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>2030</v>
@@ -11951,129 +11502,28 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9">
-        <v>2030</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13">
-        <v>2030</v>
-      </c>
-      <c r="E13">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>2030</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 B12:B14 D2:XFD14">
-    <cfRule type="cellIs" dxfId="92" priority="11" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C8 A2:A8">
+    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="12" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 D2:XFD2 F3:XFD1048576 A9:E1048576 D3:E8 B2:B8">
+    <cfRule type="cellIs" dxfId="83" priority="13" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B14">
-    <cfRule type="cellIs" dxfId="90" priority="7" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="8" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12086,10 +11536,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787902B1-49FF-4E9A-A776-4EF3DD6C2251}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12140,7 +11590,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2030</v>
@@ -12149,13 +11599,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -12194,13 +11644,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>2030</v>
@@ -12210,131 +11660,41 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>2030</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9">
-        <v>2030</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10">
-        <v>2030</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>2030</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12">
-        <v>2030</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13">
-        <v>2030</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>2030</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 H7:XFD7 F8:XFD1048576 A15:E1048576 D2:XFD6 B2:B14 D6:D14">
-    <cfRule type="cellIs" dxfId="84" priority="15" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C8 A2:A8">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="16" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 H7:XFD7 D6:D8 F8:XFD1048576 A9:E1048576 B2:B8 D2:XFD6">
+    <cfRule type="cellIs" dxfId="77" priority="17" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="18" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12347,10 +11707,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0B6D10-903E-45D2-945D-5AB2B7F91910}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J7" sqref="J7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12400,7 +11760,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2030</v>
@@ -12408,13 +11768,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -12450,13 +11810,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>2030</v>
@@ -12464,124 +11824,40 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>2030</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>2030</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 B2:B14 D2:XFD14">
-    <cfRule type="cellIs" dxfId="77" priority="17" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C8 A2:A8">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="18" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 A9:E1048576 D2:XFD2 F3:XFD1048576 B2:B8 D3:E8">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12594,10 +11870,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BA2440-FA7E-4122-886F-432F0190835A}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12647,7 +11923,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2030</v>
@@ -12655,13 +11931,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -12697,13 +11973,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>2030</v>
@@ -12711,120 +11987,20 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>2030</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>2030</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 F2:XFD5 A15:XFD1048576 B6:B14 D6:XFD14">
-    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5 D2:E5">
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
+  <conditionalFormatting sqref="C2 C4:C8 A2:A8">
     <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -12832,11 +12008,19 @@
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 F2:XFD1048576 A9:E1048576 B2:B8 D2:E8">
+    <cfRule type="cellIs" dxfId="65" priority="21" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="22" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12849,10 +12033,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7262BF2-211A-40F7-8DA2-A9A3B2563981}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12903,7 +12087,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2030</v>
@@ -12912,13 +12096,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -12957,13 +12141,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>2030</v>
@@ -12971,135 +12155,48 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>2030</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9">
-        <v>2030</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10">
-        <v>2030</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>2030</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 D2:XFD4 D5 F5:XFD5 A15:XFD1048576 B2:B14 D8:XFD14 D7 F7:XFD7 D6:XFD6">
-    <cfRule type="cellIs" dxfId="63" priority="15" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C8 A2:A8">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="16" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 A9:E1048576 D2:XFD2 F3:XFD1048576 D3:E8 B2:B8">
+    <cfRule type="cellIs" dxfId="59" priority="17" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="18" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13112,10 +12209,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4562198-CC02-43E4-97AB-554C39E3F054}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13166,7 +12263,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2030</v>
@@ -13175,13 +12272,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -13222,13 +12319,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>2030</v>
@@ -13236,128 +12333,36 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>2030</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>2030</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 F2:XFD6 D2:D6 A15:XFD1048576 B2:B14 D7:XFD14">
-    <cfRule type="cellIs" dxfId="55" priority="15" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C8 A2:A8">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="16" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 F2:XFD1048576 A9:E1048576 B2:B8 D2:E8">
+    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
+  <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -13377,7 +12382,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13423,7 +12428,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -13438,7 +12443,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -13459,7 +12464,7 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>2030</v>
@@ -13474,7 +12479,7 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="5">
         <v>2030</v>
@@ -13484,19 +12489,19 @@
     <row r="28" ht="13.95" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1 A7:XFD1048576 D2:XFD6 A2:B6">
-    <cfRule type="cellIs" dxfId="218" priority="3" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 D2:XFD6 A7:XFD1048576 A2:B6">
+    <cfRule type="cellIs" dxfId="195" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="216" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13510,10 +12515,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAC2E3B-6CDB-4786-8D97-CC74BB6E5857}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13557,18 +12562,18 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13595,110 +12600,44 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 D2:XFD14 B2:B14">
-    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C8 A2:A8">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 D2:XFD2 E3:XFD1048576 A9:D1048576 D3:D8 B2:B8">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
+  <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -13715,10 +12654,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4F402F-9840-4082-8C70-4EEEFFA387B9}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13762,18 +12701,18 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13800,110 +12739,44 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 D2:XFD14 B2:B14">
-    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C8 A2:A8">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 A9:D1048576 D2:XFD2 E3:XFD1048576 D3:D8 B2:B8">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
+  <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -13920,10 +12793,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEB9785-1D76-4245-ABD2-8A8D1E61D3A2}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13973,7 +12846,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>2030</v>
@@ -13981,13 +12854,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -14023,13 +12896,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>2030</v>
@@ -14037,124 +12910,40 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>2030</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>2030</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 B2:B14 D2:XFD14">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
+  <conditionalFormatting sqref="C2 C4:C8 A2:A8">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 A9:E1048576 D2:XFD2 F3:XFD1048576 B2:B8 D3:E8">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14248,7 +13037,7 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>2030</v>
@@ -14262,26 +13051,26 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>2030</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A7:XFD1048576 D2:XFD6 A2:B6">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A2:B6 D2:XFD6 A7:XFD1048576">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14335,10 +13124,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14418,7 +13207,7 @@
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -14474,7 +13263,7 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <v>2030</v>
@@ -14530,7 +13319,7 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>2030</v>
@@ -14544,7 +13333,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <v>2030</v>
@@ -14558,26 +13347,26 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>2030</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 A2:B14 D2:XFD14">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A2:B14 D2:XFD14 A15:XFD1048576">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14671,7 +13460,7 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="5">
         <v>2030</v>
@@ -14686,26 +13475,26 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="5">
         <v>2030</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A17:C25 A1:XFD1 A26:E1048576 E17:E25 F6:XFD1048576 A7:E16 D2:XFD5 A2:B6 D6:E6">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 D2:XFD5 A2:B6 D6:E6 F6:XFD1048576 A7:E16 A17:C25 E17:E25 A26:E1048576">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14757,10 +13546,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14775,7 +13564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9748F55D-270F-49C5-B7CF-F4EDBBBBE8A0}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -14866,7 +13655,7 @@
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -14947,7 +13736,7 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ref="D8:D14" si="0">D7</f>
@@ -15031,7 +13820,7 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -15052,7 +13841,7 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -15076,7 +13865,7 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -15090,19 +13879,19 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 A2:B14 D2:XFD14">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A2:B14 D2:XFD14 A15:XFD1048576">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15165,10 +13954,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15184,7 +13973,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15228,7 +14017,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -15242,7 +14031,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -15262,7 +14051,7 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>2030</v>
@@ -15276,26 +14065,26 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>2030</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A7:XFD1048576 D2:XFD6 A2:B6">
-    <cfRule type="cellIs" dxfId="214" priority="5" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 D2:XFD6 A7:XFD1048576 A2:B6">
+    <cfRule type="cellIs" dxfId="191" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="212" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15356,10 +14145,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15420,10 +14209,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15479,10 +14268,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15497,8 +14286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F34465-C2FB-42F5-B44C-9D96072405BF}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15537,10 +14326,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16303,10 +15092,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="210" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16364,10 +15153,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="207" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16382,7 +15171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E684FC-86EB-488A-B06D-70AB8C377A4F}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -17563,43 +16352,19 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A50:G1048576 O5:XFD13 K5:M13 G6:G49 K2:XFD4 K14:XFD25 I50:XFD1048576 I1:XFD1 A2:E49 J26:XFD49">
-    <cfRule type="cellIs" dxfId="204" priority="37" operator="equal">
+  <conditionalFormatting sqref="A1:G1 I1:XFD1 K2:XFD4 A2:E49 K5:M13 O5:XFD13 G6:G49 K14:XFD25 J26:XFD49 A50:G1048576 I50:XFD1048576">
+    <cfRule type="cellIs" dxfId="183" priority="37" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="38" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F48">
-    <cfRule type="cellIs" dxfId="202" priority="7" operator="equal">
+  <conditionalFormatting sqref="F2:F49">
+    <cfRule type="cellIs" dxfId="181" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="8" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F25">
-    <cfRule type="cellIs" dxfId="200" priority="5" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="6" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F48">
-    <cfRule type="cellIs" dxfId="198" priority="3" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="4" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="196" priority="1" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18315,10 +17080,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="193" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
